--- a/docs/manual_demo/sales_dashboard.xlsx
+++ b/docs/manual_demo/sales_dashboard.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>年份</t>
   </si>
   <si>
-    <t>月</t>
+    <t>月份</t>
   </si>
   <si>
     <t>销售部门</t>
@@ -31,37 +31,75 @@
     <t>销售额</t>
   </si>
   <si>
-    <t>一科</t>
+    <t>目标销售额</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>销售一部</t>
   </si>
   <si>
     <t>睡袋</t>
   </si>
   <si>
-    <t>二科</t>
+    <t>02</t>
+  </si>
+  <si>
+    <t>销售二部</t>
   </si>
   <si>
     <t>野餐垫</t>
   </si>
   <si>
-    <t>三科</t>
+    <t>03</t>
+  </si>
+  <si>
+    <t>销售三部</t>
   </si>
   <si>
     <t>帐篷</t>
   </si>
   <si>
-    <t>四科</t>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>销售四部</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
   </si>
   <si>
     <t>野营附件</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="m&quot;月&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -75,9 +113,9 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="13"/>
       <color indexed="8"/>
-      <name val="Herculanum"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <b val="1"/>
@@ -107,12 +145,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="15"/>
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -140,21 +178,6 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
@@ -162,21 +185,6 @@
       </top>
       <bottom style="thin">
         <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -200,13 +208,13 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -216,7 +224,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -226,37 +234,28 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -279,10 +278,9 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -299,10 +297,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -479,11 +477,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -492,34 +493,34 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -767,12 +768,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1063,7 +1064,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1343,9 +1344,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1372,511 +1371,549 @@
       <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" ht="23" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>2021</v>
       </c>
-      <c r="B2" s="5">
-        <v>44197</v>
-      </c>
-      <c r="C2" t="s" s="6">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s" s="6">
+      <c r="B2" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="E2" s="7">
+      <c r="C2" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5">
         <v>23</v>
       </c>
-      <c r="F2" s="7">
-        <v>1000</v>
-      </c>
-      <c r="G2" s="8"/>
+      <c r="F2" s="5">
+        <v>431</v>
+      </c>
+      <c r="G2" s="5">
+        <v>500</v>
+      </c>
     </row>
     <row r="3" ht="23" customHeight="1">
-      <c r="A3" s="9">
+      <c r="A3" s="6">
         <v>2021</v>
       </c>
-      <c r="B3" s="10">
-        <v>44228</v>
-      </c>
-      <c r="C3" t="s" s="11">
+      <c r="B3" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8">
+        <v>40</v>
+      </c>
+      <c r="F3" s="8">
+        <v>433</v>
+      </c>
+      <c r="G3" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" ht="23" customHeight="1">
+      <c r="A4" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B4" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8">
+        <v>67</v>
+      </c>
+      <c r="F4" s="8">
+        <v>445</v>
+      </c>
+      <c r="G4" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" ht="23" customHeight="1">
+      <c r="A5" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B5" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="D3" t="s" s="11">
+      <c r="D5" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E5" s="8">
+        <v>23</v>
+      </c>
+      <c r="F5" s="8">
+        <v>556</v>
+      </c>
+      <c r="G5" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" ht="23" customHeight="1">
+      <c r="A6" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B6" t="s" s="7">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8">
+        <v>33</v>
+      </c>
+      <c r="F6" s="8">
+        <v>444</v>
+      </c>
+      <c r="G6" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" ht="23" customHeight="1">
+      <c r="A7" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B7" t="s" s="7">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E7" s="8">
+        <v>18</v>
+      </c>
+      <c r="F7" s="8">
+        <v>344</v>
+      </c>
+      <c r="G7" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" ht="23" customHeight="1">
+      <c r="A8" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B8" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="E8" s="8">
+        <v>66</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" ht="23" customHeight="1">
+      <c r="A9" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B9" t="s" s="7">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="E9" s="8">
+        <v>112</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" ht="23" customHeight="1">
+      <c r="A10" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B10" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8">
+        <v>23</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" ht="23" customHeight="1">
+      <c r="A11" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B11" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="E11" s="8">
         <v>40</v>
       </c>
-      <c r="F3" s="12">
-        <v>2323</v>
-      </c>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" ht="23" customHeight="1">
-      <c r="A4" s="9">
+      <c r="F11" s="9"/>
+      <c r="G11" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" ht="23" customHeight="1">
+      <c r="A12" s="6">
         <v>2021</v>
       </c>
-      <c r="B4" s="10">
-        <v>44256</v>
-      </c>
-      <c r="C4" t="s" s="11">
+      <c r="B12" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="E12" s="8">
+        <v>67</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" ht="23" customHeight="1">
+      <c r="A13" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B13" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="E13" s="8">
+        <v>23</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" ht="23" customHeight="1">
+      <c r="A14" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B14" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E14" s="8">
+        <v>44</v>
+      </c>
+      <c r="F14" s="8">
+        <v>556</v>
+      </c>
+      <c r="G14" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" ht="23" customHeight="1">
+      <c r="A15" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B15" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="D4" t="s" s="11">
+      <c r="C15" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="E15" s="8">
+        <v>89</v>
+      </c>
+      <c r="F15" s="8">
+        <v>444</v>
+      </c>
+      <c r="G15" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" ht="23" customHeight="1">
+      <c r="A16" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B16" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="E16" s="8">
+        <v>34</v>
+      </c>
+      <c r="F16" s="8">
+        <v>666</v>
+      </c>
+      <c r="G16" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" ht="23" customHeight="1">
+      <c r="A17" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B17" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="E17" s="8">
+        <v>33</v>
+      </c>
+      <c r="F17" s="8">
+        <v>545</v>
+      </c>
+      <c r="G17" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" ht="23" customHeight="1">
+      <c r="A18" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B18" t="s" s="7">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E18" s="8">
+        <v>40</v>
+      </c>
+      <c r="F18" s="8">
+        <v>556</v>
+      </c>
+      <c r="G18" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" ht="23" customHeight="1">
+      <c r="A19" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B19" t="s" s="7">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="E4" s="12">
+      <c r="D19" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="E19" s="8">
         <v>67</v>
       </c>
-      <c r="F4" s="12">
-        <v>445</v>
-      </c>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" ht="23" customHeight="1">
-      <c r="A5" s="9">
-        <v>2021</v>
-      </c>
-      <c r="B5" s="10">
-        <v>44287</v>
-      </c>
-      <c r="C5" t="s" s="11">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s" s="11">
-        <v>7</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="F19" s="8">
+        <v>666</v>
+      </c>
+      <c r="G19" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" ht="23" customHeight="1">
+      <c r="A20" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B20" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="E20" s="8">
         <v>23</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F20" s="8">
+        <v>344</v>
+      </c>
+      <c r="G20" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" ht="23" customHeight="1">
+      <c r="A21" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B21" t="s" s="7">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="E21" s="8">
+        <v>22</v>
+      </c>
+      <c r="F21" s="8">
+        <v>545</v>
+      </c>
+      <c r="G21" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" ht="23" customHeight="1">
+      <c r="A22" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B22" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="E22" s="8">
+        <v>99</v>
+      </c>
+      <c r="F22" s="8">
         <v>556</v>
       </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" ht="23" customHeight="1">
-      <c r="A6" s="9">
-        <v>2021</v>
-      </c>
-      <c r="B6" s="10">
-        <v>44317</v>
-      </c>
-      <c r="C6" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s" s="11">
+      <c r="G22" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" ht="23" customHeight="1">
+      <c r="A23" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B23" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="E23" s="8">
+        <v>23</v>
+      </c>
+      <c r="F23" s="8">
+        <v>444</v>
+      </c>
+      <c r="G23" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" ht="23" customHeight="1">
+      <c r="A24" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B24" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="E6" s="12">
-        <v>33</v>
-      </c>
-      <c r="F6" s="12">
-        <v>444</v>
-      </c>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" ht="23" customHeight="1">
-      <c r="A7" s="9">
-        <v>2021</v>
-      </c>
-      <c r="B7" s="10">
-        <v>44348</v>
-      </c>
-      <c r="C7" t="s" s="11">
+      <c r="E24" s="8">
+        <v>77</v>
+      </c>
+      <c r="F24" s="8">
+        <v>777</v>
+      </c>
+      <c r="G24" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" ht="23" customHeight="1">
+      <c r="A25" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B25" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="D7" t="s" s="11">
-        <v>7</v>
-      </c>
-      <c r="E7" s="12">
-        <v>18</v>
-      </c>
-      <c r="F7" s="12">
-        <v>344</v>
-      </c>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" ht="23" customHeight="1">
-      <c r="A8" s="9">
-        <v>2021</v>
-      </c>
-      <c r="B8" s="10">
-        <v>44378</v>
-      </c>
-      <c r="C8" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s" s="11">
-        <v>11</v>
-      </c>
-      <c r="E8" s="12">
-        <v>66</v>
-      </c>
-      <c r="F8" s="12">
-        <v>566</v>
-      </c>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" ht="23" customHeight="1">
-      <c r="A9" s="9">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="10">
-        <v>44409</v>
-      </c>
-      <c r="C9" t="s" s="11">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="E9" s="12">
-        <v>112</v>
-      </c>
-      <c r="F9" s="12">
-        <v>770</v>
-      </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" ht="23" customHeight="1">
-      <c r="A10" s="9">
-        <v>2021</v>
-      </c>
-      <c r="B10" s="10">
-        <v>44440</v>
-      </c>
-      <c r="C10" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s" s="11">
+      <c r="D25" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="E10" s="12">
-        <v>23</v>
-      </c>
-      <c r="F10" s="12">
-        <v>999</v>
-      </c>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" ht="23" customHeight="1">
-      <c r="A11" s="9">
-        <v>2021</v>
-      </c>
-      <c r="B11" s="10">
-        <v>44470</v>
-      </c>
-      <c r="C11" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="E11" s="12">
-        <v>40</v>
-      </c>
-      <c r="F11" s="12">
-        <v>342</v>
-      </c>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" ht="23" customHeight="1">
-      <c r="A12" s="9">
-        <v>2021</v>
-      </c>
-      <c r="B12" s="10">
-        <v>44501</v>
-      </c>
-      <c r="C12" t="s" s="11">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="E25" s="8">
         <v>67</v>
       </c>
-      <c r="F12" s="12">
-        <v>343</v>
-      </c>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" ht="23" customHeight="1">
-      <c r="A13" s="9">
-        <v>2020</v>
-      </c>
-      <c r="B13" s="10">
-        <v>44531</v>
-      </c>
-      <c r="C13" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="E13" s="12">
-        <v>23</v>
-      </c>
-      <c r="F13" s="12">
-        <v>45</v>
-      </c>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" ht="23" customHeight="1">
-      <c r="A14" s="9">
-        <v>2020</v>
-      </c>
-      <c r="B14" s="10">
-        <v>44197</v>
-      </c>
-      <c r="C14" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s" s="11">
-        <v>7</v>
-      </c>
-      <c r="E14" s="12">
-        <v>44</v>
-      </c>
-      <c r="F14" s="12">
-        <v>556</v>
-      </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" ht="23" customHeight="1">
-      <c r="A15" s="9">
-        <v>2020</v>
-      </c>
-      <c r="B15" s="10">
-        <v>44228</v>
-      </c>
-      <c r="C15" t="s" s="11">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="E15" s="12">
-        <v>89</v>
-      </c>
-      <c r="F15" s="12">
-        <v>444</v>
-      </c>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" ht="23" customHeight="1">
-      <c r="A16" s="9">
-        <v>2020</v>
-      </c>
-      <c r="B16" s="10">
-        <v>44256</v>
-      </c>
-      <c r="C16" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s" s="11">
-        <v>11</v>
-      </c>
-      <c r="E16" s="12">
-        <v>34</v>
-      </c>
-      <c r="F16" s="12">
-        <v>666</v>
-      </c>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" ht="23" customHeight="1">
-      <c r="A17" s="9">
-        <v>2020</v>
-      </c>
-      <c r="B17" s="10">
-        <v>44287</v>
-      </c>
-      <c r="C17" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="E17" s="12">
-        <v>33</v>
-      </c>
-      <c r="F17" s="12">
+      <c r="F25" s="8">
         <v>545</v>
       </c>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" ht="23" customHeight="1">
-      <c r="A18" s="9">
-        <v>2020</v>
-      </c>
-      <c r="B18" s="10">
-        <v>44317</v>
-      </c>
-      <c r="C18" t="s" s="11">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s" s="11">
-        <v>7</v>
-      </c>
-      <c r="E18" s="12">
-        <v>40</v>
-      </c>
-      <c r="F18" s="12">
-        <v>556</v>
-      </c>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" ht="23" customHeight="1">
-      <c r="A19" s="9">
-        <v>2020</v>
-      </c>
-      <c r="B19" s="10">
-        <v>44348</v>
-      </c>
-      <c r="C19" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s" s="11">
-        <v>11</v>
-      </c>
-      <c r="E19" s="12">
-        <v>67</v>
-      </c>
-      <c r="F19" s="12">
-        <v>666</v>
-      </c>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" ht="23" customHeight="1">
-      <c r="A20" s="9">
-        <v>2020</v>
-      </c>
-      <c r="B20" s="10">
-        <v>44378</v>
-      </c>
-      <c r="C20" t="s" s="11">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="E20" s="12">
-        <v>23</v>
-      </c>
-      <c r="F20" s="12">
-        <v>344</v>
-      </c>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" ht="23" customHeight="1">
-      <c r="A21" s="9">
-        <v>2020</v>
-      </c>
-      <c r="B21" s="10">
-        <v>44409</v>
-      </c>
-      <c r="C21" t="s" s="11">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="E21" s="12">
-        <v>22</v>
-      </c>
-      <c r="F21" s="12">
-        <v>545</v>
-      </c>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" ht="23" customHeight="1">
-      <c r="A22" s="9">
-        <v>2020</v>
-      </c>
-      <c r="B22" s="10">
-        <v>44440</v>
-      </c>
-      <c r="C22" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s" s="11">
-        <v>11</v>
-      </c>
-      <c r="E22" s="12">
-        <v>99</v>
-      </c>
-      <c r="F22" s="12">
-        <v>556</v>
-      </c>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" ht="23" customHeight="1">
-      <c r="A23" s="9">
-        <v>2020</v>
-      </c>
-      <c r="B23" s="10">
-        <v>44470</v>
-      </c>
-      <c r="C23" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="E23" s="12">
-        <v>23</v>
-      </c>
-      <c r="F23" s="12">
-        <v>444</v>
-      </c>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" ht="23" customHeight="1">
-      <c r="A24" s="9">
-        <v>2020</v>
-      </c>
-      <c r="B24" s="10">
-        <v>44501</v>
-      </c>
-      <c r="C24" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s" s="11">
-        <v>7</v>
-      </c>
-      <c r="E24" s="12">
-        <v>77</v>
-      </c>
-      <c r="F24" s="12">
-        <v>777</v>
-      </c>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" ht="23" customHeight="1">
-      <c r="A25" s="9">
-        <v>2020</v>
-      </c>
-      <c r="B25" s="10">
-        <v>44531</v>
-      </c>
-      <c r="C25" t="s" s="11">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s" s="11">
-        <v>7</v>
-      </c>
-      <c r="E25" s="12">
-        <v>67</v>
-      </c>
-      <c r="F25" s="12">
-        <v>545</v>
-      </c>
-      <c r="G25" s="13"/>
+      <c r="G25" s="10">
+        <v>500</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
